--- a/company_name.xlsx
+++ b/company_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tools\获取企业备案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A7D1E-426C-40D3-8BD6-7BAA9438A323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71278CD6-5009-45A1-B6EC-507CDBA35A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,14 +63,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF3913"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -117,7 +109,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,7 +417,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -441,9 +432,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
